--- a/Excel/Excel_test1.xlsx
+++ b/Excel/Excel_test1.xlsx
@@ -338,10 +338,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1233</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/Excel_test1.xlsx
+++ b/Excel/Excel_test1.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>ww</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,17 +344,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Excel_test1.xlsx
+++ b/Excel/Excel_test1.xlsx
@@ -21,14 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ww</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,25 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/Excel_test1.xlsx
+++ b/Excel/Excel_test1.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>k</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +344,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/Excel_test1.xlsx
+++ b/Excel/Excel_test1.xlsx
@@ -21,14 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>k</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,20 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="M8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>